--- a/test/testing plan.xlsx
+++ b/test/testing plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solitontech-my.sharepoint.com/personal/venkat_guna_solitontech_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\venkat.guna\Documents\sdlc_python_web_forecast_flask_api\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="8_{926DCA94-3161-44A8-97A6-D797B3D67CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D4F46F3-30DF-45C9-BACA-FA79E04A5895}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDC8663-7BC3-49F8-B64A-2830C96F3FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="15630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
   <si>
     <t>Test Plan Created By:</t>
   </si>
@@ -73,13 +73,133 @@
   </si>
   <si>
     <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>Venkata Gunasekhar V</t>
+  </si>
+  <si>
+    <t>to check the endpoint</t>
+  </si>
+  <si>
+    <t>send without json</t>
+  </si>
+  <si>
+    <t>send json with missing parameters</t>
+  </si>
+  <si>
+    <t>send proper json with invalid user</t>
+  </si>
+  <si>
+    <t>send proper json with invalid api-key</t>
+  </si>
+  <si>
+    <t>location tests</t>
+  </si>
+  <si>
+    <t>send improper location with symbols</t>
+  </si>
+  <si>
+    <t>send remote/ not monitered location</t>
+  </si>
+  <si>
+    <t>send location with multiple matches</t>
+  </si>
+  <si>
+    <t>input tests</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>json parameters: status = false, reason = no json data found</t>
+  </si>
+  <si>
+    <t>json parameters: status = false; reason = no parameter 'user' in given json file, no parameter 'api-key' in given json file, no parameter 'place' in given json file</t>
+  </si>
+  <si>
+    <t>json parameters: status = false, reason = user name not found</t>
+  </si>
+  <si>
+    <t>json parameters: status = false, reason = Invalid api-key</t>
+  </si>
+  <si>
+    <t>json parameters: status = false, reason = Unable to find the Given location weather</t>
+  </si>
+  <si>
+    <t>json parameters: status = true and shows the weather of the high accurace match place</t>
+  </si>
+  <si>
+    <t>search without username</t>
+  </si>
+  <si>
+    <t>search without api-key</t>
+  </si>
+  <si>
+    <t>search without location</t>
+  </si>
+  <si>
+    <t>give invalid or unknown location</t>
+  </si>
+  <si>
+    <t>Test Platform</t>
+  </si>
+  <si>
+    <t>Pytest</t>
+  </si>
+  <si>
+    <t>prompt: user name not found</t>
+  </si>
+  <si>
+    <t>search without any username</t>
+  </si>
+  <si>
+    <t>prompt: Invalid api key</t>
+  </si>
+  <si>
+    <t>show the weather report of the server</t>
+  </si>
+  <si>
+    <t>prompt: Unable to find the Given Location</t>
+  </si>
+  <si>
+    <t>tkinter_gui_name_search</t>
+  </si>
+  <si>
+    <t>tkinter_gui_lat/lon_search</t>
+  </si>
+  <si>
+    <t>search without latitude and longitude</t>
+  </si>
+  <si>
+    <t>search with invalid longitude</t>
+  </si>
+  <si>
+    <t>search with values out of range in latitude</t>
+  </si>
+  <si>
+    <t>search with invalid latitude</t>
+  </si>
+  <si>
+    <t>search with values out of range in longitude</t>
+  </si>
+  <si>
+    <t>prompt: Invalid input in latitude, Try again..</t>
+  </si>
+  <si>
+    <t>prompt: Enter a valid latitude value..</t>
+  </si>
+  <si>
+    <t>prompt: Invalid input in longitude, Try again..</t>
+  </si>
+  <si>
+    <t>prompt: Enter a valid longitude value..</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,13 +215,64 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -128,24 +299,60 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="60% - Accent2" xfId="2" builtinId="36"/>
+    <cellStyle name="60% - Accent4" xfId="3" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="4" builtinId="45"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -424,238 +631,497 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="8" ySplit="9" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="25.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="32.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="2"/>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="2"/>
-      <c r="E2" s="8" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="2"/>
-      <c r="E3" s="8" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="2"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="7">
+        <v>44987</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    </row>
+    <row r="9" spans="1:8" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+    <row r="10" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3">
+        <v>4</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="3">
+        <v>6</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="3">
+        <v>7</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3">
+        <v>8</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="3">
+        <v>9</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="3">
+        <v>10</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="3">
+        <v>11</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="3">
+        <v>12</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3">
+        <v>13</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="3">
+        <v>14</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="3">
+        <v>15</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="3">
+        <v>16</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="3">
+        <v>17</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="17">
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="C17:C26"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:C16"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -663,6 +1129,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001FA0B529979518418A1D028BA4022028" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cd922203d527f198d47a0c14c89e69fb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0300ebe1-f9cf-4881-9ac0-c78ad4a7a53c" xmlns:ns4="627cddc5-af4c-4019-a68c-8dd61ae278ec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37e037710501d529afc004296e0974ad" ns3:_="" ns4:_="">
     <xsd:import namespace="0300ebe1-f9cf-4881-9ac0-c78ad4a7a53c"/>
@@ -839,15 +1314,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -857,6 +1323,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB937660-6DA3-40F1-BE30-E50D1EB01115}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A14B4110-C890-4A02-B39B-4DF66469FDAC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -871,14 +1345,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB937660-6DA3-40F1-BE30-E50D1EB01115}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
